--- a/visuals/trafficNE-stack-departures.xlsx
+++ b/visuals/trafficNE-stack-departures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\sourcetree\ATM-Team-Green\visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E31E51A5-0D1C-479B-A1C3-A69982BFC39F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AECB9F-3726-491E-9142-D01526B3EE3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trafficNE-stack-departures" sheetId="1" r:id="rId1"/>
@@ -976,7 +976,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1502,7 +1502,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1527,9 +1530,9 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1541,6 +1544,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6909121-09DD-4935-99FC-8B79D1F63A74}" name="Tableau1" displayName="Tableau1" ref="A1:H116" totalsRowShown="0">
+  <autoFilter ref="A1:H116" xr:uid="{F95D306D-195A-4FC0-A79F-775B490FA897}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EHAM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{EA6DFC99-73A5-4243-90A6-1232FBFE0516}" name="Orig"/>
+    <tableColumn id="2" xr3:uid="{F5EB8B8C-0DE8-4A69-B169-747A128C08A9}" name="Dir"/>
+    <tableColumn id="3" xr3:uid="{DA8BA299-57C6-4D50-BCC9-ACD7210B6771}" name="Dest"/>
+    <tableColumn id="4" xr3:uid="{C1C9F481-C7D7-4416-BA93-CE30A1AAA63A}" name="Time" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{F429E524-EBF9-4AE5-B10D-F6704C60B19C}" name="Callsign"/>
+    <tableColumn id="6" xr3:uid="{2AB8DE93-EF39-45A8-A297-B5E3FD5CC5FA}" name="StartLat"/>
+    <tableColumn id="7" xr3:uid="{6697B344-171A-4E32-BFCB-B1C7B4700E38}" name="StartLon"/>
+    <tableColumn id="8" xr3:uid="{53C6FE7A-E86D-4E55-8C27-18D5FD26B579}" name="Creline"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1839,10 +1865,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1898,7 +1926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1924,7 +1952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1950,7 +1978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1976,7 +2004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2002,7 +2030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2025,7 +2053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2051,7 +2079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2077,7 +2105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2155,7 +2183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2207,7 +2235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2233,7 +2261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2259,7 +2287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2285,7 +2313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2337,7 +2365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2493,7 +2521,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2519,7 +2547,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2571,7 +2599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2675,7 +2703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -2701,7 +2729,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -2727,7 +2755,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2805,7 +2833,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2880,7 +2908,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2932,7 +2960,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3036,7 +3064,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -3111,7 +3139,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3163,7 +3191,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -3189,7 +3217,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3241,7 +3269,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -3293,7 +3321,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3371,7 +3399,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -3449,7 +3477,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -3527,7 +3555,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -3553,7 +3581,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -3628,7 +3656,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3654,7 +3682,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -3677,7 +3705,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -3755,7 +3783,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -3911,7 +3939,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -3963,7 +3991,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -4012,7 +4040,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -4038,7 +4066,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -4090,7 +4118,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -4113,7 +4141,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -4162,7 +4190,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -4214,7 +4242,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>35</v>
       </c>
@@ -4266,7 +4294,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -4344,7 +4372,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -4396,7 +4424,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -4448,7 +4476,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -4500,7 +4528,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -4552,7 +4580,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>29</v>
       </c>
@@ -4604,7 +4632,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -4682,7 +4710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -4734,7 +4762,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -4783,7 +4811,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -4837,5 +4865,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>